--- a/16-Projects/gameon/sales-26-31-Dec.xlsx
+++ b/16-Projects/gameon/sales-26-31-Dec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\16-Projects\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252FBCD-9D84-47B3-A09E-C900C36263B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85619D74-E939-484B-9615-EEC59D25873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="391">
   <si>
     <t>Year</t>
   </si>
@@ -1154,6 +1154,54 @@
   </si>
   <si>
     <t xml:space="preserve">Dibrugarh </t>
+  </si>
+  <si>
+    <t>OD426911905743755100</t>
+  </si>
+  <si>
+    <t>Yonex-2020-182</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehradun </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 21i Badminton Racket With Etech 902 Pack of 5 Badminton Grips Badminton Kit Black 2</t>
+  </si>
+  <si>
+    <t>OD426905833019121100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandarbani </t>
+  </si>
+  <si>
+    <t>OD326906030486150100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durllabhganj </t>
+  </si>
+  <si>
+    <t>OD326906811726381100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELLENABAD </t>
+  </si>
+  <si>
+    <t>OD426908613900075100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-57</t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 21i Strunged (27lbs) With Free 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426915163197611100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasaratpur </t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6172,6 +6220,340 @@
       </c>
       <c r="P94" s="8" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="7">
+        <v>44924</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="8">
+        <v>2449</v>
+      </c>
+      <c r="L95" s="8"/>
+      <c r="M95" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="7">
+        <v>44914</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="7">
+        <v>44923</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="8">
+        <v>2399</v>
+      </c>
+      <c r="L97" s="8"/>
+      <c r="M97" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="7">
+        <v>44923</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="8">
+        <v>2459</v>
+      </c>
+      <c r="L98" s="8"/>
+      <c r="M98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="7">
+        <v>44923</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="8">
+        <v>2399</v>
+      </c>
+      <c r="L99" s="8"/>
+      <c r="M99" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="7">
+        <v>44923</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="8">
+        <v>2799</v>
+      </c>
+      <c r="L100" s="8"/>
+      <c r="M100" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="7">
+        <v>44924</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="8">
+        <v>2899</v>
+      </c>
+      <c r="L101" s="8"/>
+      <c r="M101" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
